--- a/data/trans_dic/P57-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se considera gitano/a</t>
+          <t>Población que se considera gitano/a (tasa de respuesta: 98,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 11,53</t>
+          <t>1,98; 11,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 13,5</t>
+          <t>4,0; 14,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 10,43</t>
+          <t>3,61; 10,74</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,19%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 26,95</t>
+          <t>7,58; 26,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,45</t>
+          <t>2,72; 10,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 17,91</t>
+          <t>6,23; 17,28</t>
         </is>
       </c>
     </row>
@@ -656,7 +657,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,89</t>
+          <t>2,75; 12,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,98</t>
+          <t>1,99; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,17</t>
+          <t>2,88; 8,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,78</t>
+          <t>0,97; 5,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,9</t>
+          <t>4,12; 11,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,71</t>
+          <t>2,92; 6,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,76</t>
+          <t>1,34; 8,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,9</t>
+          <t>0,97; 5,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,52</t>
+          <t>1,89; 5,64</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,88</t>
+          <t>1,06; 6,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,41</t>
+          <t>0,45; 6,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,89</t>
+          <t>1,11; 5,01</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,71</t>
+          <t>4,24; 8,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,97</t>
+          <t>3,41; 6,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,73</t>
+          <t>4,19; 6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -906,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se considera gitano/a (tasa de respuesta: 98,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2932</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>824; 4904</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1494; 5370</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2854; 8492</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7285</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9686</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3749; 13202</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1240; 4767</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5918; 16423</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3522</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5605</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1629; 7148</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1055; 3600</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3229; 9190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3412</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4862</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>558; 3294</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2102; 5648</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3162; 7250</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>586; 3515</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>464; 2795</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1726; 5157</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1425</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>484; 2932</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>284; 4174</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1210; 5442</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17550</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13614</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31163</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12603; 26448</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>10165; 17862</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24930; 40133</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>